--- a/REGULAR/CHARACTER/LANTING, AILEEN.xlsx
+++ b/REGULAR/CHARACTER/LANTING, AILEEN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CHARACTER\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD91F68-E676-487E-9519-42FA5407C864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="435">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1336,19 +1334,25 @@
   </si>
   <si>
     <t>8/10,11/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1742,9 +1746,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,7 +1810,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1826,7 +1827,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1841,7 +1842,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1883,7 +1884,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1943,7 +1944,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1956,7 +1957,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1971,7 +1972,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1989,7 +1990,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2006,7 +2007,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2025,7 +2026,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2042,7 +2043,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2058,7 +2059,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2075,7 +2076,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2094,7 +2095,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2111,7 +2112,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2127,7 +2128,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2184,7 +2185,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2229,7 +2230,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2273,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2337,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2397,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2463,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2526,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2624,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2683,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,7 +2748,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,7 +2791,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2866,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3052,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3118,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3176,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3242,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,7 +3298,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3373,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3416,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3481,7 +3482,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3537,7 +3538,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3636,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3699,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3747,7 +3748,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3764,25 +3765,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K647" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K648" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3794,13 +3795,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3809,14 +3810,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4113,14 +4114,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4130,7 +4131,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4138,19 +4139,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K647"/>
+  <dimension ref="A2:K648"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A239" activePane="bottomLeft"/>
+      <pane ySplit="1884" topLeftCell="A635" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="G241" sqref="G241"/>
+      <selection pane="bottomLeft" activeCell="F642" sqref="F642"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -4165,64 +4166,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4230,7 +4231,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4243,24 +4244,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4303,8 +4304,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>115.18700000000007</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>118.93700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4313,13 +4314,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>116.75</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>118.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4341,7 +4342,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4361,7 +4362,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4382,7 +4383,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4403,7 +4404,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4421,7 +4422,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4462,7 +4463,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4487,7 +4488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4505,7 +4506,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4526,7 +4527,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4547,7 +4548,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4568,7 +4569,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4593,7 +4594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4611,7 +4612,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4636,7 +4637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4654,7 +4655,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4679,7 +4680,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4701,7 +4702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4719,7 +4720,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4742,7 +4743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4764,7 +4765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4782,7 +4783,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4805,7 +4806,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4827,7 +4828,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4845,7 +4846,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4870,7 +4871,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4892,7 +4893,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -4910,7 +4911,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -4956,7 +4957,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -4981,7 +4982,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5003,7 +5004,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5028,7 +5029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5050,7 +5051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5068,7 +5069,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5093,7 +5094,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5115,7 +5116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5137,7 +5138,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5162,7 +5163,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5183,7 +5184,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5210,7 +5211,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5230,7 +5231,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5255,7 +5256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5277,7 +5278,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5298,7 +5299,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5323,7 +5324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5343,7 +5344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5365,7 +5366,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5390,7 +5391,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5415,7 +5416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5437,7 +5438,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5455,7 +5456,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5501,7 +5502,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5526,7 +5527,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5551,7 +5552,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5576,7 +5577,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5598,7 +5599,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5623,7 +5624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5645,7 +5646,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5670,7 +5671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5692,7 +5693,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5712,7 +5713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5734,7 +5735,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5759,7 +5760,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5784,7 +5785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5806,7 +5807,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5831,7 +5832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5853,7 +5854,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5878,7 +5879,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -5898,7 +5899,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -5920,7 +5921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5938,7 +5939,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -5963,7 +5964,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -5988,7 +5989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6010,7 +6011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6032,7 +6033,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6050,7 +6051,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6074,7 +6075,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6099,7 +6100,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6124,7 +6125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6146,7 +6147,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6171,7 +6172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6193,7 +6194,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6218,7 +6219,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6243,7 +6244,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6268,7 +6269,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6289,7 +6290,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6312,7 +6313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6330,7 +6331,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6353,7 +6354,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6371,7 +6372,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6392,7 +6393,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6417,7 +6418,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6439,7 +6440,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6461,7 +6462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6479,7 +6480,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6497,7 +6498,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6539,7 +6540,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6560,7 +6561,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6585,7 +6586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6603,7 +6604,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6628,7 +6629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6646,7 +6647,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6667,7 +6668,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6688,7 +6689,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6713,7 +6714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6731,7 +6732,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6756,7 +6757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6774,7 +6775,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6799,7 +6800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6819,7 +6820,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6837,7 +6838,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6858,7 +6859,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6883,7 +6884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -6905,7 +6906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -6927,7 +6928,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6945,7 +6946,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -6970,7 +6971,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6988,7 +6989,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7006,7 +7007,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7052,7 +7053,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7074,7 +7075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7092,7 +7093,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7113,7 +7114,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7138,7 +7139,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7160,7 +7161,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7182,7 +7183,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7202,7 +7203,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7220,7 +7221,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7241,7 +7242,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7262,7 +7263,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7283,7 +7284,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7304,7 +7305,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7329,7 +7330,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7347,7 +7348,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7372,7 +7373,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7394,7 +7395,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7414,7 +7415,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7432,7 +7433,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7457,7 +7458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7475,7 +7476,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7496,7 +7497,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7521,7 +7522,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7539,7 +7540,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7557,7 +7558,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7599,7 +7600,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7620,7 +7621,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7641,7 +7642,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7662,7 +7663,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7687,7 +7688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7707,7 +7708,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7725,7 +7726,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7750,7 +7751,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7768,7 +7769,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7789,7 +7790,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7812,7 +7813,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7830,7 +7831,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7851,7 +7852,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7872,7 +7873,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7893,7 +7894,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -7914,7 +7915,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -7932,7 +7933,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -7956,7 +7957,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -7981,7 +7982,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8006,7 +8007,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8028,7 +8029,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8053,7 +8054,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8078,7 +8079,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8103,7 +8104,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8128,7 +8129,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8153,7 +8154,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8176,7 +8177,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8198,7 +8199,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8223,7 +8224,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8245,7 +8246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8267,7 +8268,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8290,7 +8291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8312,7 +8313,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8337,7 +8338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8355,7 +8356,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8373,7 +8374,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8417,7 +8418,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8442,7 +8443,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8464,7 +8465,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8489,7 +8490,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8514,7 +8515,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8539,7 +8540,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8564,7 +8565,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8589,7 +8590,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8611,7 +8612,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8633,7 +8634,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8658,7 +8659,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8683,7 +8684,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8703,7 +8704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8721,7 +8722,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8741,7 +8742,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8766,7 +8767,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8791,7 +8792,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8816,7 +8817,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8838,7 +8839,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8858,7 +8859,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8876,7 +8877,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -8922,7 +8923,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -8947,7 +8948,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -8972,7 +8973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -8994,7 +8995,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9016,7 +9017,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9041,7 +9042,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9063,7 +9064,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9085,7 +9086,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9110,7 +9111,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9135,7 +9136,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9160,7 +9161,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9182,7 +9183,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9205,7 +9206,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9227,7 +9228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9249,7 +9250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9271,7 +9272,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9293,7 +9294,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9315,7 +9316,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9335,7 +9336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9357,7 +9358,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9382,7 +9383,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9407,7 +9408,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9432,7 +9433,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9454,7 +9455,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9479,7 +9480,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9497,7 +9498,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9517,7 +9518,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9538,7 +9539,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9559,7 +9560,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9580,7 +9581,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9601,7 +9602,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9622,7 +9623,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9645,7 +9646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9667,7 +9668,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9689,7 +9690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9707,7 +9708,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9732,7 +9733,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9750,7 +9751,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9775,7 +9776,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9797,7 +9798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9817,7 +9818,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9835,7 +9836,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9860,7 +9861,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9883,7 +9884,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -9905,7 +9906,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -9927,7 +9928,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -9952,7 +9953,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -9970,7 +9971,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -9994,7 +9995,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10019,7 +10020,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10044,7 +10045,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10066,7 +10067,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10091,7 +10092,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10113,7 +10114,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10138,7 +10139,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10163,7 +10164,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10188,7 +10189,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10208,7 +10209,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10230,7 +10231,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10255,7 +10256,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10278,7 +10279,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10300,7 +10301,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10325,7 +10326,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10348,7 +10349,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10370,7 +10371,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10392,7 +10393,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10413,7 +10414,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10431,7 +10432,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10475,7 +10476,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10497,7 +10498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10517,7 +10518,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10539,7 +10540,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10561,7 +10562,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10581,7 +10582,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10603,7 +10604,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10625,7 +10626,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10650,7 +10651,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10675,7 +10676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10697,7 +10698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10719,7 +10720,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10744,7 +10745,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10769,7 +10770,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10791,7 +10792,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10816,7 +10817,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10841,7 +10842,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10866,7 +10867,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10891,7 +10892,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -10911,7 +10912,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -10933,7 +10934,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -10955,7 +10956,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -10978,7 +10979,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11003,7 +11004,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11025,7 +11026,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11050,7 +11051,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11068,7 +11069,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11092,7 +11093,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11117,7 +11118,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11142,7 +11143,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11164,7 +11165,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11189,7 +11190,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11214,7 +11215,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11239,7 +11240,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11261,7 +11262,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11286,7 +11287,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11311,7 +11312,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11333,7 +11334,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11356,7 +11357,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11378,7 +11379,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11398,7 +11399,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11420,7 +11421,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11445,7 +11446,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11470,7 +11471,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11492,7 +11493,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11517,7 +11518,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11535,7 +11536,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11581,7 +11582,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11599,7 +11600,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11624,7 +11625,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11642,7 +11643,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11667,7 +11668,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11685,7 +11686,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11710,7 +11711,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11732,7 +11733,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11754,7 +11755,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11774,7 +11775,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11792,7 +11793,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11817,7 +11818,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11839,7 +11840,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11857,7 +11858,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11878,7 +11879,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -11899,7 +11900,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -11920,7 +11921,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -11945,7 +11946,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -11967,7 +11968,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -11987,7 +11988,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12007,7 +12008,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12029,7 +12030,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12047,7 +12048,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12072,7 +12073,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12090,7 +12091,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12111,7 +12112,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12136,7 +12137,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12158,7 +12159,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12176,7 +12177,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12198,7 +12199,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12220,7 +12221,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12238,7 +12239,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12256,7 +12257,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12302,7 +12303,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12322,7 +12323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12342,7 +12343,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12360,7 +12361,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12385,7 +12386,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12403,7 +12404,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12428,7 +12429,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12450,7 +12451,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12468,7 +12469,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12493,7 +12494,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12511,7 +12512,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12536,7 +12537,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12558,7 +12559,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12580,7 +12581,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12602,7 +12603,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12620,7 +12621,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12643,7 +12644,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12665,7 +12666,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12685,7 +12686,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12703,7 +12704,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12724,7 +12725,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12745,7 +12746,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12766,7 +12767,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12791,7 +12792,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12813,7 +12814,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12831,7 +12832,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12856,7 +12857,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12874,7 +12875,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -12899,7 +12900,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -12917,7 +12918,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -12935,7 +12936,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -12977,7 +12978,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -12998,7 +12999,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13023,7 +13024,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13045,7 +13046,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13067,7 +13068,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13089,7 +13090,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13112,7 +13113,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13132,7 +13133,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13150,7 +13151,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13175,7 +13176,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13193,7 +13194,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13218,7 +13219,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13236,7 +13237,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13261,7 +13262,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13279,7 +13280,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13300,7 +13301,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13325,7 +13326,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13347,7 +13348,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13367,7 +13368,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13387,7 +13388,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13405,7 +13406,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13430,7 +13431,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13448,7 +13449,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13469,7 +13470,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13494,7 +13495,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13516,7 +13517,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13534,7 +13535,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13578,7 +13579,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13600,7 +13601,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13618,7 +13619,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13639,7 +13640,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13664,7 +13665,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13682,7 +13683,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13703,7 +13704,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13726,7 +13727,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13748,7 +13749,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13768,7 +13769,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13790,7 +13791,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13812,7 +13813,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13837,7 +13838,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13855,7 +13856,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13880,7 +13881,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -13905,7 +13906,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -13927,7 +13928,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -13952,7 +13953,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -13977,7 +13978,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -13999,7 +14000,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14021,7 +14022,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14046,7 +14047,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14068,7 +14069,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14090,7 +14091,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14115,7 +14116,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14133,7 +14134,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14179,7 +14180,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14204,7 +14205,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14225,7 +14226,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14250,7 +14251,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14272,7 +14273,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14294,7 +14295,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14319,7 +14320,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14339,7 +14340,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14361,7 +14362,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14383,7 +14384,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14405,7 +14406,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14425,7 +14426,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14450,7 +14451,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14475,7 +14476,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14500,7 +14501,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14522,7 +14523,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14547,7 +14548,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14569,7 +14570,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14594,7 +14595,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14619,7 +14620,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14639,7 +14640,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14661,7 +14662,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14683,7 +14684,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14705,7 +14706,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14727,7 +14728,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14752,7 +14753,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14770,7 +14771,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14794,7 +14795,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14814,7 +14815,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14834,7 +14835,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14852,7 +14853,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14873,7 +14874,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14894,7 +14895,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -14915,7 +14916,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -14936,7 +14937,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -14957,7 +14958,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -14978,7 +14979,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15003,7 +15004,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15025,7 +15026,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15047,7 +15048,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15065,7 +15066,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15086,7 +15087,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15111,7 +15112,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15129,7 +15130,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15150,7 +15151,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15175,7 +15176,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15193,7 +15194,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15211,7 +15212,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15233,7 +15234,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15255,7 +15256,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15277,7 +15278,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15297,7 +15298,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15315,7 +15316,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15336,7 +15337,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15361,7 +15362,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15379,7 +15380,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15400,7 +15401,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15425,7 +15426,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15447,7 +15448,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15469,7 +15470,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15491,7 +15492,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15509,7 +15510,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15534,7 +15535,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15556,7 +15557,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15574,7 +15575,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15599,7 +15600,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15621,7 +15622,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15643,7 +15644,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15661,7 +15662,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15682,7 +15683,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15707,7 +15708,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15729,7 +15730,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15751,7 +15752,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15773,7 +15774,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15795,7 +15796,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15813,7 +15814,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15834,7 +15835,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15859,7 +15860,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15877,7 +15878,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -15902,7 +15903,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -15920,7 +15921,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -15960,7 +15961,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -15985,7 +15986,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16003,7 +16004,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16024,7 +16025,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16049,7 +16050,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16071,7 +16072,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16089,7 +16090,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16114,7 +16115,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16137,7 +16138,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16159,7 +16160,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16181,7 +16182,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16203,7 +16204,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16228,7 +16229,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16250,7 +16251,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16272,7 +16273,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16297,7 +16298,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16322,7 +16323,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16347,7 +16348,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16369,7 +16370,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16387,7 +16388,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16408,7 +16409,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16433,7 +16434,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16451,7 +16452,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16469,7 +16470,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16493,7 +16494,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16515,7 +16516,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16537,7 +16538,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16555,7 +16556,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16576,7 +16577,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16597,7 +16598,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16624,7 +16625,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16645,7 +16646,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16670,7 +16671,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16688,7 +16689,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16709,7 +16710,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16734,7 +16735,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16756,7 +16757,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16774,7 +16775,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16799,7 +16800,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16819,7 +16820,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16841,7 +16842,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16859,7 +16860,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16880,7 +16881,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -16901,7 +16902,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -16926,7 +16927,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -16948,7 +16949,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -16966,7 +16967,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -16984,7 +16985,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17008,7 +17009,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17028,7 +17029,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17046,7 +17047,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17067,7 +17068,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17088,7 +17089,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17109,7 +17110,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17130,7 +17131,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17151,7 +17152,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17172,7 +17173,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17193,7 +17194,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17214,7 +17215,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17237,7 +17238,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17255,7 +17256,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17276,7 +17277,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17299,7 +17300,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17321,7 +17322,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17339,7 +17340,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17357,7 +17358,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17377,7 +17378,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17398,7 +17399,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17418,7 +17419,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17436,7 +17437,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17457,7 +17458,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17478,7 +17479,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17501,7 +17502,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17523,7 +17524,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17541,7 +17542,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17562,7 +17563,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17583,7 +17584,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17604,7 +17605,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17625,7 +17626,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17650,7 +17651,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17672,7 +17673,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17690,7 +17691,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17711,7 +17712,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17729,8 +17730,8 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11">
-      <c r="A622" s="56">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A622" s="40">
         <v>44562</v>
       </c>
       <c r="B622" s="20"/>
@@ -17749,7 +17750,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17770,7 +17771,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17793,7 +17794,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13">
@@ -17811,7 +17812,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17832,7 +17833,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17853,7 +17854,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17875,7 +17876,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>48</v>
@@ -17897,7 +17898,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>53</v>
@@ -17917,7 +17918,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -17942,7 +17943,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>48</v>
@@ -17964,7 +17965,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13">
@@ -17982,7 +17983,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <f>EDATE(A631,1)</f>
         <v>44743</v>
@@ -18003,7 +18004,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18028,7 +18029,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -18046,7 +18047,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18067,7 +18068,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18092,9 +18093,11 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
-      <c r="B639" s="20"/>
+      <c r="B639" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C639" s="13">
         <v>1.25</v>
       </c>
@@ -18105,14 +18108,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H639" s="39"/>
+      <c r="H639" s="39">
+        <v>1</v>
+      </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="20"/>
-    </row>
-    <row r="640" spans="1:11">
+      <c r="K639" s="49">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
-      <c r="B640" s="20"/>
+      <c r="B640" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
       <c r="E640" s="9"/>
@@ -18121,45 +18130,59 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H640" s="39"/>
+      <c r="H640" s="39">
+        <v>1</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="20"/>
-    </row>
-    <row r="641" spans="1:11">
-      <c r="A641" s="40"/>
+      <c r="K640" s="49">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A641" s="40">
+        <v>44866</v>
+      </c>
       <c r="B641" s="20"/>
-      <c r="C641" s="13"/>
+      <c r="C641" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D641" s="39"/>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G641" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11">
-      <c r="A642" s="40"/>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A642" s="40">
+        <v>44896</v>
+      </c>
       <c r="B642" s="20"/>
-      <c r="C642" s="13"/>
+      <c r="C642" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D642" s="39"/>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G642" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11">
-      <c r="A643" s="40"/>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A643" s="48" t="s">
+        <v>433</v>
+      </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
       <c r="D643" s="39"/>
@@ -18174,23 +18197,27 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11">
-      <c r="A644" s="40"/>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A644" s="40">
+        <v>44927</v>
+      </c>
       <c r="B644" s="20"/>
-      <c r="C644" s="13"/>
+      <c r="C644" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D644" s="39"/>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G644" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -18206,7 +18233,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -18222,21 +18249,37 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11">
-      <c r="A647" s="41"/>
-      <c r="B647" s="15"/>
-      <c r="C647" s="42"/>
-      <c r="D647" s="43"/>
-      <c r="E647" s="51"/>
-      <c r="F647" s="15"/>
-      <c r="G647" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H647" s="43"/>
-      <c r="I647" s="51"/>
-      <c r="J647" s="12"/>
-      <c r="K647" s="15"/>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A647" s="40"/>
+      <c r="B647" s="20"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="39"/>
+      <c r="E647" s="9"/>
+      <c r="F647" s="20"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="39"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="11"/>
+      <c r="K647" s="20"/>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A648" s="41"/>
+      <c r="B648" s="15"/>
+      <c r="C648" s="42"/>
+      <c r="D648" s="43"/>
+      <c r="E648" s="51"/>
+      <c r="F648" s="15"/>
+      <c r="G648" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H648" s="43"/>
+      <c r="I648" s="51"/>
+      <c r="J648" s="12"/>
+      <c r="K648" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18253,10 +18296,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18279,7 +18322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -18287,7 +18330,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -18301,20 +18344,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="67" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18343,7 +18386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -18369,17 +18412,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18393,14 +18436,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18427,7 +18470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18453,7 +18496,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18479,7 +18522,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18505,7 +18548,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18531,7 +18574,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18557,7 +18600,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18583,7 +18626,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18609,7 +18652,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18629,7 +18672,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18649,7 +18692,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18669,7 +18712,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18690,7 +18733,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18711,7 +18754,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18732,7 +18775,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18753,7 +18796,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18774,7 +18817,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18795,7 +18838,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18816,7 +18859,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18837,7 +18880,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18858,7 +18901,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18879,7 +18922,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18900,7 +18943,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18921,7 +18964,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18942,7 +18985,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18963,7 +19006,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18984,7 +19027,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19005,7 +19048,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19026,7 +19069,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19047,7 +19090,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19068,7 +19111,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19089,7 +19132,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19098,7 +19141,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19107,7 +19150,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19116,7 +19159,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19125,7 +19168,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19134,7 +19177,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19143,7 +19186,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19152,7 +19195,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19161,7 +19204,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19170,7 +19213,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19179,7 +19222,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19188,7 +19231,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19197,7 +19240,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19206,7 +19249,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19215,7 +19258,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19224,7 +19267,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19233,7 +19276,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19242,7 +19285,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19251,7 +19294,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19260,7 +19303,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19269,7 +19312,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19278,7 +19321,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19287,7 +19330,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19296,7 +19339,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19305,7 +19348,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19314,7 +19357,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19323,7 +19366,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19332,7 +19375,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19341,7 +19384,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19350,7 +19393,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
